--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-Itgb1.xlsx
@@ -540,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H2">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>3.390099505970667</v>
+        <v>4.216112901511499</v>
       </c>
       <c r="R2">
-        <v>20.340597035824</v>
+        <v>25.29667740906899</v>
       </c>
       <c r="S2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="T2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H3">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>3.62789477191</v>
+        <v>5.114655659904999</v>
       </c>
       <c r="R3">
-        <v>21.76736863146</v>
+        <v>30.68793395942999</v>
       </c>
       <c r="S3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="T3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H4">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1.821684485334667</v>
+        <v>2.887476582092666</v>
       </c>
       <c r="R4">
-        <v>10.930106912008</v>
+        <v>17.324859492556</v>
       </c>
       <c r="S4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="T4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H5">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>4.1513442543285</v>
+        <v>3.14901083055625</v>
       </c>
       <c r="R5">
-        <v>16.605377017314</v>
+        <v>12.596043322225</v>
       </c>
       <c r="S5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="T5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H6">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>2.081286502582334</v>
+        <v>3.106381331955</v>
       </c>
       <c r="R6">
-        <v>12.487719015494</v>
+        <v>18.63828799173</v>
       </c>
       <c r="S6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="T6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
     </row>
   </sheetData>
